--- a/DATOS/PRECIOS ALQUILER/Precio_alquiler_CCAA.xlsx
+++ b/DATOS/PRECIOS ALQUILER/Precio_alquiler_CCAA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorie\Desktop\TRABAJO\MICRODATOS\VIVIENDA IDEALISTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorie\Desktop\TRABAJO\CGT\Análisis de coyuntura económica\IPC\Nuevo calculo de IPC alternativo para inquilinos\reponderacionIPC_2\DATOS\PRECIOS ALQUILER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y237"/>
+  <dimension ref="A1:Y241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="V240" sqref="V240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15317,6 +15317,266 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2025</v>
+      </c>
+      <c r="B238">
+        <v>9</v>
+      </c>
+      <c r="C238">
+        <v>12.4</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>9.9</v>
+      </c>
+      <c r="F238">
+        <v>19.2</v>
+      </c>
+      <c r="G238">
+        <v>15</v>
+      </c>
+      <c r="H238">
+        <v>11.5</v>
+      </c>
+      <c r="I238">
+        <v>8.9</v>
+      </c>
+      <c r="J238">
+        <v>8</v>
+      </c>
+      <c r="K238">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L238">
+        <v>12.4</v>
+      </c>
+      <c r="M238">
+        <v>7.3</v>
+      </c>
+      <c r="N238">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O238">
+        <v>20.9</v>
+      </c>
+      <c r="P238">
+        <v>8.9</v>
+      </c>
+      <c r="Q238">
+        <v>10.7</v>
+      </c>
+      <c r="R238">
+        <v>14.9</v>
+      </c>
+      <c r="S238">
+        <v>9</v>
+      </c>
+      <c r="T238">
+        <v>13.9</v>
+      </c>
+      <c r="U238">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2025</v>
+      </c>
+      <c r="B239">
+        <v>10</v>
+      </c>
+      <c r="C239">
+        <v>12.4</v>
+      </c>
+      <c r="D239">
+        <v>10.1</v>
+      </c>
+      <c r="E239">
+        <v>9.9</v>
+      </c>
+      <c r="F239">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G239">
+        <v>15.1</v>
+      </c>
+      <c r="H239">
+        <v>11.1</v>
+      </c>
+      <c r="I239">
+        <v>9</v>
+      </c>
+      <c r="J239">
+        <v>8</v>
+      </c>
+      <c r="K239">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L239">
+        <v>12.3</v>
+      </c>
+      <c r="M239">
+        <v>7.2</v>
+      </c>
+      <c r="N239">
+        <v>9.1</v>
+      </c>
+      <c r="O239">
+        <v>21.1</v>
+      </c>
+      <c r="P239">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q239">
+        <v>10.6</v>
+      </c>
+      <c r="R239">
+        <v>14.9</v>
+      </c>
+      <c r="S239">
+        <v>9</v>
+      </c>
+      <c r="T239">
+        <v>13.9</v>
+      </c>
+      <c r="U239">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2025</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+      <c r="C240">
+        <v>12.7</v>
+      </c>
+      <c r="D240">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E240">
+        <v>10</v>
+      </c>
+      <c r="F240">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G240">
+        <v>15.1</v>
+      </c>
+      <c r="H240">
+        <v>10.8</v>
+      </c>
+      <c r="I240">
+        <v>9.1</v>
+      </c>
+      <c r="J240">
+        <v>8.1</v>
+      </c>
+      <c r="K240">
+        <v>18.7</v>
+      </c>
+      <c r="L240">
+        <v>12.4</v>
+      </c>
+      <c r="M240">
+        <v>7.2</v>
+      </c>
+      <c r="N240">
+        <v>9.1</v>
+      </c>
+      <c r="O240">
+        <v>21</v>
+      </c>
+      <c r="P240">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q240">
+        <v>10.7</v>
+      </c>
+      <c r="R240">
+        <v>14.8</v>
+      </c>
+      <c r="S240">
+        <v>8.9</v>
+      </c>
+      <c r="T240">
+        <v>13.9</v>
+      </c>
+      <c r="U240">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>2025</v>
+      </c>
+      <c r="B241">
+        <v>12</v>
+      </c>
+      <c r="C241">
+        <v>13</v>
+      </c>
+      <c r="D241">
+        <v>10.4</v>
+      </c>
+      <c r="E241">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F241">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G241">
+        <v>15.3</v>
+      </c>
+      <c r="H241">
+        <v>10.9</v>
+      </c>
+      <c r="I241">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J241">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K241">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L241">
+        <v>12.5</v>
+      </c>
+      <c r="M241">
+        <v>7.3</v>
+      </c>
+      <c r="N241">
+        <v>9.4</v>
+      </c>
+      <c r="O241">
+        <v>20.8</v>
+      </c>
+      <c r="P241">
+        <v>9</v>
+      </c>
+      <c r="Q241">
+        <v>11.1</v>
+      </c>
+      <c r="R241">
+        <v>14.9</v>
+      </c>
+      <c r="S241">
+        <v>9.1</v>
+      </c>
+      <c r="T241">
+        <v>13.9</v>
+      </c>
+      <c r="U241">
+        <v>10.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
